--- a/CM_Plan/Design/Database Desgin/Database_V1.5.xlsx
+++ b/CM_Plan/Design/Database Desgin/Database_V1.5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Member</t>
   </si>
@@ -101,7 +101,10 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>DateLog</t>
+    <t>Create Date</t>
+  </si>
+  <si>
+    <t>Modified Date</t>
   </si>
   <si>
     <t>StatusFeedBack</t>
@@ -115,10 +118,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -132,6 +135,71 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -142,23 +210,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,65 +235,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,37 +272,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,6 +285,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -299,25 +302,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,157 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +511,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -519,47 +537,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,6 +559,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -591,159 +594,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -754,6 +757,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1051,15 +1057,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
+      <xdr:colOff>6985</xdr:colOff>
       <xdr:row>215</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>10440</xdr:colOff>
-      <xdr:row>222</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1068,8 +1074,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7705090" y="36935410"/>
-          <a:ext cx="1365250" cy="1267460"/>
+          <a:off x="7695565" y="36935410"/>
+          <a:ext cx="1374775" cy="1910715"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1113,16 +1119,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1140460</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>83185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>36720</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>681990</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1131,8 +1137,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5033010" y="37802820"/>
-          <a:ext cx="1406525" cy="537845"/>
+          <a:off x="5031740" y="37802185"/>
+          <a:ext cx="1367790" cy="1191260"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1235,6 +1241,55 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1270</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>99695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>17780</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Elbow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2598420" y="37647245"/>
+          <a:ext cx="3822700" cy="514985"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9387"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1498,10 +1553,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C211:L234"/>
+  <dimension ref="C211:L236"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="M213" sqref="M213"/>
+      <selection activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1621,7 +1676,8 @@
     </row>
     <row r="219" spans="3:12">
       <c r="C219" s="4"/>
-      <c r="F219" s="6"/>
+      <c r="F219" s="7"/>
+      <c r="I219" s="9"/>
       <c r="L219" s="4" t="s">
         <v>12</v>
       </c>
@@ -1631,6 +1687,9 @@
       <c r="F220" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="I220" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="J220" s="2" t="s">
         <v>1</v>
       </c>
@@ -1650,11 +1709,11 @@
       <c r="C222" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D222" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="F222" s="4"/>
       <c r="G222" s="2"/>
-      <c r="I222" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="L222" s="4" t="s">
         <v>18</v>
       </c>
@@ -1669,9 +1728,6 @@
       <c r="G223" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I223" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L223" s="4"/>
     </row>
     <row r="224" spans="3:12">
@@ -1681,9 +1737,6 @@
       <c r="F224" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I224" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="L224" s="3" t="s">
         <v>5</v>
       </c>
@@ -1694,9 +1747,6 @@
       </c>
       <c r="F225" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="I225" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="L225" s="4"/>
     </row>
@@ -1705,7 +1755,9 @@
       <c r="F226" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I226" s="4"/>
+      <c r="I226" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="227" spans="3:9">
       <c r="C227" s="4" t="s">
@@ -1714,42 +1766,62 @@
       <c r="F227" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I227" s="4"/>
-    </row>
-    <row r="228" spans="3:6">
+      <c r="I227" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="3:9">
       <c r="C228" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="229" spans="3:6">
+      <c r="I228" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" spans="3:9">
       <c r="C229" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F229" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="230" spans="6:6">
+      <c r="I229" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="230" spans="3:9">
+      <c r="C230" s="7"/>
       <c r="F230" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="231" spans="6:6">
-      <c r="F231" s="4" t="s">
+      <c r="I230" s="4"/>
+    </row>
+    <row r="231" spans="3:9">
+      <c r="C231" s="7"/>
+      <c r="F231" s="4"/>
+      <c r="I231" s="4"/>
+    </row>
+    <row r="232" spans="6:6">
+      <c r="F232" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="232" spans="6:6">
-      <c r="F232" s="4"/>
-    </row>
     <row r="233" spans="6:6">
-      <c r="F233" s="3"/>
+      <c r="F233" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="234" spans="6:6">
-      <c r="F234" s="7"/>
+      <c r="F234" s="4"/>
+    </row>
+    <row r="235" spans="6:6">
+      <c r="F235" s="3"/>
+    </row>
+    <row r="236" spans="6:6">
+      <c r="F236" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/CM_Plan/Design/Database Desgin/Database_V1.5.xlsx
+++ b/CM_Plan/Design/Database Desgin/Database_V1.5.xlsx
@@ -5,17 +5,39 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12915" tabRatio="500"/>
+    <workbookView windowWidth="28200" windowHeight="12915" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="53">
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Role ID</t>
+  </si>
+  <si>
+    <t>Role Name</t>
+  </si>
+  <si>
+    <t>1--1</t>
+  </si>
+  <si>
+    <t>ProjectPhase</t>
+  </si>
+  <si>
+    <t>Number Phase</t>
+  </si>
+  <si>
+    <t>Description Phase</t>
+  </si>
   <si>
     <t>Member</t>
   </si>
@@ -32,66 +54,75 @@
     <t>Account</t>
   </si>
   <si>
+    <t>Project ID</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Project Role</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Join Date</t>
+  </si>
+  <si>
+    <t>Finish Date</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>isPM</t>
+  </si>
+  <si>
+    <t>PhaseNumber</t>
+  </si>
+  <si>
+    <t>Log Work</t>
+  </si>
+  <si>
+    <t>Create By</t>
+  </si>
+  <si>
+    <t>LogWork ID</t>
+  </si>
+  <si>
+    <t>PhasesNumber</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
     <t>ID Project</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>RoleProject</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>Join Date</t>
-  </si>
-  <si>
-    <t>Finish Date</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ID Product</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
     <t>Phases</t>
   </si>
   <si>
-    <t>Log Work</t>
-  </si>
-  <si>
-    <t>Create By</t>
-  </si>
-  <si>
-    <t>ID LogWork</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>Type Work</t>
   </si>
   <si>
@@ -104,13 +135,57 @@
     <t>Create Date</t>
   </si>
   <si>
+    <t>ProductPhase</t>
+  </si>
+  <si>
     <t>Modified Date</t>
   </si>
   <si>
-    <t>StatusFeedBack</t>
+    <t>Phase ID</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>ID Feedback</t>
+  </si>
+  <si>
+    <t>Description Feedback</t>
+  </si>
+  <si>
+    <t>Id Logwork</t>
   </si>
   <si>
     <t>AccountFeedBack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project ID </t>
+  </si>
+  <si>
+    <t>Phase Of Project</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <r>
+      <t>Project ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Project Phase</t>
+  </si>
+  <si>
+    <t>Leave Date</t>
   </si>
 </sst>
 </file>
@@ -118,15 +193,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -139,6 +220,74 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF06C934"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,21 +309,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,14 +326,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,17 +340,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,37 +378,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,28 +390,151 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -308,19 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,19 +562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,91 +580,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,42 +592,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -511,6 +621,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -522,6 +669,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,35 +697,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,176 +731,201 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,6 +979,11 @@
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="0006C934"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -834,8 +1002,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>231120</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>448925</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
@@ -885,7 +1053,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2598420" y="36292790"/>
+          <a:off x="2989580" y="36292790"/>
           <a:ext cx="1327785" cy="635"/>
         </a:xfrm>
         <a:custGeom>
@@ -948,7 +1116,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5056505" y="36268025"/>
+          <a:off x="5447665" y="36268025"/>
           <a:ext cx="1398270" cy="161925"/>
         </a:xfrm>
         <a:custGeom>
@@ -1011,7 +1179,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7689850" y="36276280"/>
+          <a:off x="8081010" y="36276280"/>
           <a:ext cx="1398270" cy="2039620"/>
         </a:xfrm>
         <a:custGeom>
@@ -1074,7 +1242,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7695565" y="36935410"/>
+          <a:off x="8086725" y="36935410"/>
           <a:ext cx="1374775" cy="1910715"/>
         </a:xfrm>
         <a:custGeom>
@@ -1137,7 +1305,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5031740" y="37802185"/>
+          <a:off x="5422900" y="37802185"/>
           <a:ext cx="1367790" cy="1191260"/>
         </a:xfrm>
         <a:custGeom>
@@ -1200,7 +1368,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2606040" y="36292790"/>
+          <a:off x="2997200" y="36292790"/>
           <a:ext cx="1311910" cy="1868805"/>
         </a:xfrm>
         <a:custGeom>
@@ -1263,12 +1431,854 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2598420" y="37647245"/>
+          <a:off x="2989580" y="37647245"/>
           <a:ext cx="3822700" cy="514985"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
             <a:gd name="adj1" fmla="val 9387"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>42545</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>125095</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>67310</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10852785" y="39044245"/>
+          <a:ext cx="710565" cy="309880"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2997835" y="34733230"/>
+          <a:ext cx="1840865" cy="1551305"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>680085</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="34724975"/>
+          <a:ext cx="7337425" cy="8255"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7302</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>671512</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>98107</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Elbow Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10035540" y="35513645"/>
+          <a:ext cx="2912745" cy="1350010"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100067"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>59055</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10819765" y="37794565"/>
+          <a:ext cx="735330" cy="1257935"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>199390</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>604520</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>50165</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Connector 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3873500" y="36568380"/>
+          <a:ext cx="405130" cy="635"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>215582</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>72072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571182</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>49847</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Elbow Connector 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2620645" y="34944050"/>
+          <a:ext cx="2892425" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99772"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1459230</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>605155</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2981325" y="37778055"/>
+          <a:ext cx="1297940" cy="3608705"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>680085</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5432425" y="37255450"/>
+          <a:ext cx="1356360" cy="1412875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>17780</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8097520" y="35385375"/>
+          <a:ext cx="1356360" cy="1911350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16510</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10133965" y="3347085"/>
+          <a:ext cx="1267460" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1369060</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7378065" y="3323590"/>
+          <a:ext cx="1353820" cy="172085"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2540</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1232535</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1929130" y="2139950"/>
+          <a:ext cx="1229995" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>31115</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4573270" y="2311400"/>
+          <a:ext cx="1289685" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1372235</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1306195</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4537075" y="3345815"/>
+          <a:ext cx="1311275" cy="15875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1225550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1936115" y="3511550"/>
+          <a:ext cx="1216025" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>697865</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1313815</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5240020" y="3340100"/>
+          <a:ext cx="615950" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1378267</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>167957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>702627</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Elbow Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3468370" y="5184775"/>
+          <a:ext cx="2849880" cy="702310"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100011"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -1553,16 +2563,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C211:L236"/>
+  <dimension ref="C194:N243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="E227" sqref="E227"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B203" workbookViewId="0">
+      <selection activeCell="C238" sqref="C238:C243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="16.0833333333333" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="10.975" customWidth="1"/>
+    <col min="3" max="3" width="19.2416666666667" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="7.99166666666667" customWidth="1"/>
     <col min="6" max="6" width="14.9583333333333" customWidth="1"/>
@@ -1573,255 +2584,354 @@
     <col min="13" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="211" spans="3:9">
+    <row r="194" spans="6:6">
+      <c r="F194" s="23"/>
+    </row>
+    <row r="196" spans="6:6">
+      <c r="F196" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="6:6">
+      <c r="F197" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="6:6">
+      <c r="F198" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="6:6">
+      <c r="F199" s="10"/>
+    </row>
+    <row r="201" spans="5:5">
+      <c r="E201" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="12:12">
+      <c r="L206" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="12:12">
+      <c r="L207" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="12:12">
+      <c r="L208" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="12:12">
+      <c r="L209" s="10"/>
+    </row>
+    <row r="210" spans="12:12">
+      <c r="L210" s="10"/>
+    </row>
+    <row r="211" spans="3:11">
       <c r="C211" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D211" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I211" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K211" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="3:12">
+      <c r="C212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G212" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I212" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L212" s="25"/>
+    </row>
+    <row r="213" spans="3:9">
+      <c r="C213" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I213" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="3:9">
+      <c r="C214" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I214" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="3:14">
+      <c r="C215" s="6"/>
+      <c r="F215" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I215" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N215" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="3:12">
+      <c r="C216" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G216" s="25"/>
+      <c r="I216" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J216" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L216" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="3:12">
+      <c r="C217" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I217" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="L217" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="3:12">
+      <c r="C218" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D218" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I218" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L218" s="27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="3:12">
+      <c r="C219" s="6"/>
+      <c r="F219" s="21"/>
+      <c r="I219" s="29"/>
+      <c r="L219" s="27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="220" spans="4:12">
+      <c r="D220" s="19"/>
+      <c r="F220" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I220" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J220" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L220" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="221" spans="6:12">
+      <c r="F221" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H221" s="19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="212" spans="3:9">
-      <c r="C212" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I212" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213" spans="3:9">
-      <c r="C213" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I213" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="214" spans="3:9">
-      <c r="C214" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F214" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I214" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="215" spans="3:12">
-      <c r="C215" s="4"/>
-      <c r="F215" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I215" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="216" spans="3:12">
-      <c r="C216" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I216" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J216" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L216" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="217" spans="3:12">
-      <c r="C217" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I217" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L217" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="218" spans="3:12">
-      <c r="C218" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I218" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L218" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="219" spans="3:12">
-      <c r="C219" s="4"/>
-      <c r="F219" s="7"/>
-      <c r="I219" s="9"/>
-      <c r="L219" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="220" spans="4:12">
-      <c r="D220" s="5"/>
-      <c r="F220" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I220" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J220" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L220" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="221" spans="6:12">
-      <c r="F221" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="L221" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="222" spans="3:12">
       <c r="C222" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D222" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F222" s="6"/>
+      <c r="G222" s="18"/>
+      <c r="L222" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="223" spans="3:12">
+      <c r="C223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F223" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G223" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="L223" s="6"/>
+    </row>
+    <row r="224" spans="3:12">
+      <c r="C224" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F224" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="L224" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="225" spans="3:12">
+      <c r="C225" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F225" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L225" s="6"/>
+    </row>
+    <row r="226" spans="3:9">
+      <c r="C226" s="6"/>
+      <c r="F226" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="227" spans="3:13">
+      <c r="C227" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F227" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I227" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M227" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="3:9">
+      <c r="C228" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D222" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F222" s="4"/>
-      <c r="G222" s="2"/>
-      <c r="L222" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="223" spans="3:12">
-      <c r="C223" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F223" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G223" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L223" s="4"/>
-    </row>
-    <row r="224" spans="3:12">
-      <c r="C224" s="4" t="s">
+      <c r="F228" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I228" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="3:12">
+      <c r="C229" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F229" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I229" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L229" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="230" spans="3:12">
+      <c r="C230" s="21"/>
+      <c r="F230" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I230" s="6"/>
+      <c r="L230" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="231" spans="3:12">
+      <c r="C231" s="21"/>
+      <c r="F231" s="6"/>
+      <c r="I231" s="6"/>
+      <c r="L231" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F224" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L224" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" spans="3:12">
-      <c r="C225" s="4" t="s">
+    </row>
+    <row r="232" spans="6:12">
+      <c r="F232" s="27"/>
+      <c r="L232" s="10"/>
+    </row>
+    <row r="233" spans="4:12">
+      <c r="D233" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F225" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L225" s="4"/>
-    </row>
-    <row r="226" spans="3:9">
-      <c r="C226" s="4"/>
-      <c r="F226" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I226" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="227" spans="3:9">
-      <c r="C227" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F227" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I227" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="228" spans="3:9">
-      <c r="C228" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F228" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I228" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="229" spans="3:9">
-      <c r="C229" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F229" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I229" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="230" spans="3:9">
-      <c r="C230" s="7"/>
-      <c r="F230" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I230" s="4"/>
-    </row>
-    <row r="231" spans="3:9">
-      <c r="C231" s="7"/>
-      <c r="F231" s="4"/>
-      <c r="I231" s="4"/>
-    </row>
-    <row r="232" spans="6:6">
-      <c r="F232" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="233" spans="6:6">
-      <c r="F233" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="F233" s="10"/>
+      <c r="L233" s="10"/>
     </row>
     <row r="234" spans="6:6">
-      <c r="F234" s="4"/>
+      <c r="F234" s="6"/>
     </row>
     <row r="235" spans="6:6">
-      <c r="F235" s="3"/>
+      <c r="F235" s="4"/>
     </row>
     <row r="236" spans="6:6">
-      <c r="F236" s="8"/>
+      <c r="F236" s="29"/>
+    </row>
+    <row r="238" spans="3:3">
+      <c r="C238" s="23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3">
+      <c r="C239" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3">
+      <c r="C241" s="10"/>
+    </row>
+    <row r="242" spans="3:3">
+      <c r="C242" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3">
+      <c r="C243" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1829,4 +2939,333 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B12:J43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="6.825" customWidth="1"/>
+    <col min="2" max="2" width="18.4583333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="18.075" customWidth="1"/>
+    <col min="5" max="5" width="17.4083333333333" customWidth="1"/>
+    <col min="6" max="6" width="19.6083333333333" customWidth="1"/>
+    <col min="7" max="7" width="17.9833333333333" customWidth="1"/>
+    <col min="8" max="8" width="18.1666666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.825" customWidth="1"/>
+    <col min="10" max="10" width="19.225" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:4">
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="6"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="10"/>
+      <c r="D19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10">
+      <c r="D20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10">
+      <c r="D21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10">
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="F23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="J25" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="10"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" s="5"/>
+    </row>
+    <row r="32" spans="4:10">
+      <c r="D32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10">
+      <c r="D33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10">
+      <c r="D34" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="J34" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10">
+      <c r="D35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="4:10">
+      <c r="D36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="H36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10">
+      <c r="D37" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="H37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8">
+      <c r="D38" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8">
+      <c r="D39" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8">
+      <c r="D40" s="10"/>
+      <c r="H40" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8">
+      <c r="D41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8">
+      <c r="D42" s="10"/>
+      <c r="H42" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8">
+      <c r="D43" s="10"/>
+      <c r="H43" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>